--- a/r4-core-25-ig-folderdeploy/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r4-core-25-ig-folderdeploy/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-26T14:39:47+00:00</t>
+    <t>2021-11-26T14:47:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
